--- a/REMOLLENO, MICHELLE UBALDO.xlsx
+++ b/REMOLLENO, MICHELLE UBALDO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE2C9DD8-EFE3-4708-AA99-A191EABDC38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24A5A60-518B-426D-8FC2-2DA398B67CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -30,20 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>PERIOD</t>
   </si>
@@ -211,6 +203,12 @@
   </si>
   <si>
     <t>12/26-28/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>9/19,20</t>
   </si>
 </sst>
 </file>
@@ -2658,7 +2656,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A40" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2823,7 +2821,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29.917000000000002</v>
+        <v>29.167000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2833,7 +2831,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>44.917000000000002</v>
+        <v>46.167000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3548,11 +3546,15 @@
       <c r="A45" s="40">
         <v>44805</v>
       </c>
-      <c r="B45" s="20"/>
+      <c r="B45" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C45" s="13">
         <v>1.25</v>
       </c>
-      <c r="D45" s="39"/>
+      <c r="D45" s="39">
+        <v>2</v>
+      </c>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
       <c r="G45" s="13">
@@ -3562,7 +3564,9 @@
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
+      <c r="K45" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
@@ -3641,7 +3645,9 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
+      <c r="A49" s="48" t="s">
+        <v>56</v>
+      </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
@@ -3657,15 +3663,19 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
+      <c r="A50" s="40">
+        <v>44927</v>
+      </c>
       <c r="B50" s="20"/>
-      <c r="C50" s="13"/>
+      <c r="C50" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D50" s="39"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G50" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
